--- a/Testcase.xlsx
+++ b/Testcase.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#91" sheetId="1" r:id="rId1"/>
+    <sheet name="#639" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="74">
   <si>
     <t>00</t>
   </si>
@@ -198,6 +199,54 @@
   </si>
   <si>
     <t>"12"</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>0*</t>
+  </si>
+  <si>
+    <t>1*</t>
+  </si>
+  <si>
+    <t>2*</t>
+  </si>
+  <si>
+    <t>3*</t>
+  </si>
+  <si>
+    <t>*0</t>
+  </si>
+  <si>
+    <t>*1</t>
+  </si>
+  <si>
+    <t>*9</t>
+  </si>
+  <si>
+    <t>"*"</t>
+  </si>
+  <si>
+    <t>"0*"</t>
+  </si>
+  <si>
+    <t>"1*"</t>
+  </si>
+  <si>
+    <t>"2*"</t>
+  </si>
+  <si>
+    <t>"3*"</t>
+  </si>
+  <si>
+    <t>"*0"</t>
+  </si>
+  <si>
+    <t>"*1"</t>
+  </si>
+  <si>
+    <t>"*9"</t>
   </si>
 </sst>
 </file>
@@ -526,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="str">
-        <f t="shared" ref="M2:N8" si="0">""""&amp;K2&amp;""""</f>
+        <f t="shared" ref="M2:M8" si="0">""""&amp;K2&amp;""""</f>
         <v>"00"</v>
       </c>
       <c r="N2" t="s">
@@ -1142,4 +1191,730 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:N23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1">
+        <v>31</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1" t="str">
+        <f>""""&amp;K1&amp;""""</f>
+        <v>"0"</v>
+      </c>
+      <c r="N1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0</v>
+      </c>
+      <c r="M2" t="str">
+        <f t="shared" ref="M2:N16" si="0">""""&amp;K2&amp;""""</f>
+        <v>"00"</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" si="0"/>
+        <v>"01"</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="0"/>
+        <v>"10"</v>
+      </c>
+      <c r="N4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="0"/>
+        <v>"30"</v>
+      </c>
+      <c r="N5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>2</v>
+      </c>
+      <c r="I6" s="3">
+        <v>3</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="0"/>
+        <v>"36"</v>
+      </c>
+      <c r="N6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2</v>
+      </c>
+      <c r="H7" s="3">
+        <v>3</v>
+      </c>
+      <c r="I7" s="3">
+        <v>5</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="0"/>
+        <v>"31"</v>
+      </c>
+      <c r="N7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="3">
+        <v>2</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="0"/>
+        <v>"12"</v>
+      </c>
+      <c r="N8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" s="3">
+        <v>9</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="0"/>
+        <v>"*"</v>
+      </c>
+      <c r="N9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="0"/>
+        <v>"0*"</v>
+      </c>
+      <c r="N10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C11" t="str">
+        <f>""""&amp;C$1&amp;$B2&amp;""""</f>
+        <v>"0000"</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" ref="D11:I11" si="1">""""&amp;D$1&amp;$B2&amp;""""</f>
+        <v>"0100"</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v>"1000"</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v>"3000"</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>"3600"</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="1"/>
+        <v>"3100"</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="1"/>
+        <v>"1200"</v>
+      </c>
+      <c r="K11" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="3">
+        <v>18</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="0"/>
+        <v>"1*"</v>
+      </c>
+      <c r="N11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C12" t="str">
+        <f t="shared" ref="C12:I16" si="2">""""&amp;C$1&amp;$B3&amp;""""</f>
+        <v>"0001"</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="2"/>
+        <v>"0101"</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="2"/>
+        <v>"1001"</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="2"/>
+        <v>"3001"</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="2"/>
+        <v>"3601"</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="2"/>
+        <v>"3101"</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="2"/>
+        <v>"1201"</v>
+      </c>
+      <c r="K12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L12" s="3">
+        <v>15</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="0"/>
+        <v>"2*"</v>
+      </c>
+      <c r="N12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C13" t="str">
+        <f t="shared" si="2"/>
+        <v>"0010"</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="2"/>
+        <v>"0110"</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="2"/>
+        <v>"1010"</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="2"/>
+        <v>"3010"</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="2"/>
+        <v>"3610"</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="2"/>
+        <v>"3110"</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="2"/>
+        <v>"1210"</v>
+      </c>
+      <c r="K13" t="s">
+        <v>62</v>
+      </c>
+      <c r="L13" s="3">
+        <v>9</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="0"/>
+        <v>"3*"</v>
+      </c>
+      <c r="N13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C14" t="str">
+        <f t="shared" si="2"/>
+        <v>"0030"</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="2"/>
+        <v>"0130"</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="2"/>
+        <v>"1030"</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="2"/>
+        <v>"3030"</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="2"/>
+        <v>"3630"</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="2"/>
+        <v>"3130"</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="2"/>
+        <v>"1230"</v>
+      </c>
+      <c r="K14" t="s">
+        <v>63</v>
+      </c>
+      <c r="L14" s="3">
+        <v>2</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="0"/>
+        <v>"*0"</v>
+      </c>
+      <c r="N14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C15" t="str">
+        <f t="shared" si="2"/>
+        <v>"0036"</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="2"/>
+        <v>"0136"</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="2"/>
+        <v>"1036"</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="2"/>
+        <v>"3036"</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="2"/>
+        <v>"3636"</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="2"/>
+        <v>"3136"</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="2"/>
+        <v>"1236"</v>
+      </c>
+      <c r="K15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L15">
+        <v>11</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="0"/>
+        <v>"*1"</v>
+      </c>
+      <c r="N15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C16" t="str">
+        <f t="shared" si="2"/>
+        <v>"0012"</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="2"/>
+        <v>"0112"</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="2"/>
+        <v>"1012"</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="2"/>
+        <v>"3012"</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="2"/>
+        <v>"3612"</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="2"/>
+        <v>"3112"</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="2"/>
+        <v>"1212"</v>
+      </c>
+      <c r="K16" t="s">
+        <v>65</v>
+      </c>
+      <c r="L16">
+        <v>10</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="0"/>
+        <v>"*9"</v>
+      </c>
+      <c r="N16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>